--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/template-repo-data-analysis/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/issd-wcdi-ethiopia/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81D3684-821A-2744-B3EA-49BF89841C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189693BC-CE0C-1D42-9333-05D851DD9746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="33980" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>key</t>
   </si>
@@ -62,9 +62,6 @@
     <t>subjects</t>
   </si>
   <si>
-    <t>2025-04-14</t>
-  </si>
-  <si>
     <t>Zenodo</t>
   </si>
   <si>
@@ -98,21 +95,12 @@
     <t>Kauê</t>
   </si>
   <si>
-    <t>Marie-Angélique</t>
-  </si>
-  <si>
     <t>de Sousa</t>
   </si>
   <si>
-    <t>Laporte</t>
-  </si>
-  <si>
     <t>0000-0002-7571-7845</t>
   </si>
   <si>
-    <t>0000-0002-8461-9745</t>
-  </si>
-  <si>
     <t>datamanager</t>
   </si>
   <si>
@@ -131,9 +119,6 @@
     <t>grant_number</t>
   </si>
   <si>
-    <t>Norwegian Agency for Development Cooperation</t>
-  </si>
-  <si>
     <t>community_id</t>
   </si>
   <si>
@@ -146,15 +131,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>accepted</t>
-  </si>
-  <si>
-    <t>submitted</t>
-  </si>
-  <si>
-    <t>https://ror.org/04zbn7k04</t>
-  </si>
-  <si>
     <t>Gates Foundation</t>
   </si>
   <si>
@@ -167,12 +143,6 @@
     <t>INV-031561</t>
   </si>
   <si>
-    <t>CONT-1522</t>
-  </si>
-  <si>
-    <t>Biodiversity for Opportunities, Livelihoods and Development (BOLD)</t>
-  </si>
-  <si>
     <t>https://github.com/AgrDataSci/template-repo-data-analysis</t>
   </si>
   <si>
@@ -185,19 +155,67 @@
     <t>University of Inland Norway</t>
   </si>
   <si>
-    <t>This is a generic template to allow scientists in using a well structured data workflow following the project-oriented approach and findable accessible interoperable and reusable (FAIR) principles for data and code publication in science. The project contains a example of data from the CIMMYT market intelligence research (Donovan et al 2025, https://doi.org/10.1017/S001447972500002X) with data description and an example of R script for analysis and documentation. Feel free to delete the example files once the project is adapted for your needs.</t>
-  </si>
-  <si>
-    <t>A FAIR and project-oriented template for open science data workflows</t>
-  </si>
-  <si>
-    <t>data-driven research; FAIR principles; data management; open science</t>
-  </si>
-  <si>
-    <t>v1.1</t>
-  </si>
-  <si>
     <t>2025-04-24</t>
+  </si>
+  <si>
+    <t>Crop Varietal Preference; Crop and Varietal Portfolio; On-Farm Testing; Tricot Approach</t>
+  </si>
+  <si>
+    <t>Replication data and code for: "Citizen science in Ethiopia contests prevailing assumptions in formal seed systems concerning men and women smallholders’ preferences for crop varieties and traits, revealing their latent demand for diversity"</t>
+  </si>
+  <si>
+    <t>v1.0</t>
+  </si>
+  <si>
+    <t>Context: Ethiopia’s diverse agroecology and agronomy include a vast portfolio of crops. Plant breeding, agricultural extension, and the seed sector are centrally planned for major food security crops. This limits non-state actors’ participation and results in a limited understanding of farmers’ preferred crops and varieties. Methods: We conducted sex-balanced citizen science on-farm variety selection trials among 29,523 smallholders across a wide range of agro-ecologies. We applied a tricot (triadic comparison of technology) experimental design, whereby each participating farmer received small packages of three randomly assigned varieties from at least 361 varieties of 12 different species of cereals, pulses, and oilseeds to assess under their own management practices. Farmer-preferred traits were measured at agreed times and uploaded to the ClimMob.net platform. The Plackett-Luce model estimated the probability of one variety outperforming the others and ranked trait preferences</t>
+  </si>
+  <si>
+    <t>Gareth</t>
+  </si>
+  <si>
+    <t>Borman</t>
+  </si>
+  <si>
+    <t>Mirjam</t>
+  </si>
+  <si>
+    <t>Schaap</t>
+  </si>
+  <si>
+    <t>Legesse</t>
+  </si>
+  <si>
+    <t>Abate</t>
+  </si>
+  <si>
+    <t>Mohammed</t>
+  </si>
+  <si>
+    <t>Hassena Beko</t>
+  </si>
+  <si>
+    <t>datacollector</t>
+  </si>
+  <si>
+    <t>Wageningen University and Research</t>
+  </si>
+  <si>
+    <t>Stichting Wageningen Research</t>
+  </si>
+  <si>
+    <t>0000-0001-7018-2266</t>
+  </si>
+  <si>
+    <t>0009-0008-3407-9112</t>
+  </si>
+  <si>
+    <t>The Netherlands Ministry of Foreign Affairs</t>
+  </si>
+  <si>
+    <t>https://ror.org/03rx2ty86</t>
+  </si>
+  <si>
+    <t>ADD 28161</t>
   </si>
 </sst>
 </file>
@@ -274,7 +292,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -285,6 +303,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -610,12 +634,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>54</v>
+      <c r="B2" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -623,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -631,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -639,15 +663,15 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="256" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -655,7 +679,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -663,7 +687,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -671,7 +695,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -679,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -687,7 +711,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -697,10 +721,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -715,59 +739,108 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
+      <c r="F6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -780,7 +853,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="144" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -792,49 +865,47 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{DBD07CB8-4C60-DC49-A47F-A5C36097E2A4}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{88DC9299-FC51-9B47-B2A4-F4F10395B917}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -855,18 +926,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -876,10 +947,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -889,26 +960,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/issd-wcdi-ethiopia/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189693BC-CE0C-1D42-9333-05D851DD9746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B98DDE-B914-0D4F-AB74-71075EE888A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="33980" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t>Crop Varietal Preference; Crop and Varietal Portfolio; On-Farm Testing; Tricot Approach</t>
   </si>
   <si>
-    <t>Replication data and code for: "Citizen science in Ethiopia contests prevailing assumptions in formal seed systems concerning men and women smallholders’ preferences for crop varieties and traits, revealing their latent demand for diversity"</t>
-  </si>
-  <si>
     <t>v1.0</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>ADD 28161</t>
+  </si>
+  <si>
+    <t>Replication data and code for: Citizen science in Ethiopia contests prevailing assumptions in formal seed systems concerning men and women smallholders’ preferences for crop varieties and traits, revealing their latent demand for diversity</t>
   </si>
 </sst>
 </file>
@@ -306,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -639,7 +639,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -647,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -671,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -759,67 +759,67 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
         <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
       </c>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
         <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
       </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>55</v>
       </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="7"/>
     </row>
@@ -879,14 +879,14 @@
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/issd-wcdi-ethiopia/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B98DDE-B914-0D4F-AB74-71075EE888A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CAD82C-C121-844C-8AE2-42CF76AC08F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="33980" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>key</t>
   </si>
@@ -104,9 +104,6 @@
     <t>datamanager</t>
   </si>
   <si>
-    <t>Alliance Bioversity International – CIAT</t>
-  </si>
-  <si>
     <t>funder_name</t>
   </si>
   <si>
@@ -216,6 +213,33 @@
   </si>
   <si>
     <t>Replication data and code for: Citizen science in Ethiopia contests prevailing assumptions in formal seed systems concerning men and women smallholders’ preferences for crop varieties and traits, revealing their latent demand for diversity</t>
+  </si>
+  <si>
+    <t>Martina</t>
+  </si>
+  <si>
+    <t>Occelli</t>
+  </si>
+  <si>
+    <t>researcher</t>
+  </si>
+  <si>
+    <t>Cornell University</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>van Etten</t>
+  </si>
+  <si>
+    <t>Alliance Bioversity International - CIAT</t>
+  </si>
+  <si>
+    <t>0000-0002-5339-8601</t>
+  </si>
+  <si>
+    <t>0000-0001-7554-2558</t>
   </si>
 </sst>
 </file>
@@ -616,7 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -639,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -647,7 +671,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -655,7 +679,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -671,7 +695,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -703,7 +727,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -711,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -721,10 +745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -759,88 +783,124 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
         <v>55</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
       </c>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
         <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
       </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>54</v>
       </c>
-      <c r="D5" t="s">
-        <v>55</v>
-      </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -865,42 +925,42 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -926,18 +986,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -960,10 +1020,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/issd-wcdi-ethiopia/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CAD82C-C121-844C-8AE2-42CF76AC08F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC86057-0E9C-274A-92BC-E8099506A605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="33980" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>INV-031561</t>
   </si>
   <si>
-    <t>https://github.com/AgrDataSci/template-repo-data-analysis</t>
-  </si>
-  <si>
     <t>cropontologycop</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
   </si>
   <si>
     <t>0000-0001-7554-2558</t>
+  </si>
+  <si>
+    <t>https://github.com/AgrDataSci/issd-wcdi-ethiopia</t>
   </si>
 </sst>
 </file>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -663,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -671,7 +671,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -679,7 +679,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -695,7 +695,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -727,7 +727,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -735,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -783,103 +783,103 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
         <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
       </c>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
         <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
       </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
         <v>52</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
         <v>63</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>65</v>
-      </c>
-      <c r="E6" t="s">
-        <v>66</v>
       </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
         <v>67</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
         <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" t="s">
-        <v>69</v>
       </c>
       <c r="F7" s="7"/>
     </row>
@@ -897,10 +897,10 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -939,14 +939,14 @@
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -994,10 +994,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/issd-wcdi-ethiopia/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC86057-0E9C-274A-92BC-E8099506A605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286E79AA-43BD-C84A-88A3-5F3F6AED9F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="33980" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>key</t>
   </si>
@@ -149,9 +149,6 @@
     <t>University of Inland Norway</t>
   </si>
   <si>
-    <t>2025-04-24</t>
-  </si>
-  <si>
     <t>Crop Varietal Preference; Crop and Varietal Portfolio; On-Farm Testing; Tricot Approach</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>Hassena Beko</t>
   </si>
   <si>
-    <t>datacollector</t>
-  </si>
-  <si>
     <t>Wageningen University and Research</t>
   </si>
   <si>
@@ -240,6 +234,9 @@
   </si>
   <si>
     <t>https://github.com/AgrDataSci/issd-wcdi-ethiopia</t>
+  </si>
+  <si>
+    <t>2025-05-20</t>
   </si>
 </sst>
 </file>
@@ -641,7 +638,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -663,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -671,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -679,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -695,7 +692,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -727,7 +724,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -735,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -748,7 +745,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -783,103 +780,103 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
       <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
         <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
       <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
         <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
       </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" t="s">
-        <v>65</v>
       </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
         <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
       </c>
       <c r="F7" s="7"/>
     </row>
@@ -897,7 +894,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
@@ -939,14 +936,14 @@
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/issd-wcdi-ethiopia/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286E79AA-43BD-C84A-88A3-5F3F6AED9F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B08EDE0-DD20-A745-B6D1-36E3190E171C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="33980" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -236,7 +236,7 @@
     <t>https://github.com/AgrDataSci/issd-wcdi-ethiopia</t>
   </si>
   <si>
-    <t>2025-05-20</t>
+    <t>2025-06-03</t>
   </si>
 </sst>
 </file>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/issd-wcdi-ethiopia/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B08EDE0-DD20-A745-B6D1-36E3190E171C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C540B514-7874-A748-9504-50B96A1EB971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="33980" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,9 +203,6 @@
     <t>ADD 28161</t>
   </si>
   <si>
-    <t>Replication data and code for: Citizen science in Ethiopia contests prevailing assumptions in formal seed systems concerning men and women smallholders’ preferences for crop varieties and traits, revealing their latent demand for diversity</t>
-  </si>
-  <si>
     <t>Martina</t>
   </si>
   <si>
@@ -237,6 +234,9 @@
   </si>
   <si>
     <t>2025-06-03</t>
+  </si>
+  <si>
+    <t>Replication data and code for: Citizen science in Ethiopia contests prevailing assumptions in formal seed systems concerning men and women smallholders preferences for crop varieties and traits revealing their latent demand for diversity</t>
   </si>
 </sst>
 </file>
@@ -638,7 +638,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -660,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -676,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -724,7 +724,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -789,7 +789,7 @@
         <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
         <v>52</v>
@@ -807,7 +807,7 @@
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>52</v>
@@ -822,7 +822,7 @@
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
         <v>53</v>
@@ -837,7 +837,7 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
         <v>53</v>
@@ -846,37 +846,37 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>62</v>
-      </c>
-      <c r="E6" t="s">
-        <v>63</v>
       </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
         <v>64</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
         <v>65</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>66</v>
       </c>
       <c r="F7" s="7"/>
     </row>
@@ -894,7 +894,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
